--- a/data/Perculation_rate.xlsx
+++ b/data/Perculation_rate.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maks/Documents/GitHub/aba_flooding/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5C7276-38F6-6545-974F-EB854D26752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B28520B-6A74-DD42-AEEC-C0024ECDF6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="2" xr2:uid="{7496AC84-B74F-474A-8184-FE72E4124C09}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{7496AC84-B74F-474A-8184-FE72E4124C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Thailand" sheetId="1" r:id="rId1"/>
     <sheet name="Philippines" sheetId="2" r:id="rId2"/>
     <sheet name="Malaysia" sheetId="3" r:id="rId3"/>
+    <sheet name="Preliminary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Period</t>
   </si>
@@ -146,6 +147,48 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Soil Texture</t>
+  </si>
+  <si>
+    <t>Effluent Infiltration Rate (l/m²/d)</t>
+  </si>
+  <si>
+    <t>Gravel, Coarse Sand</t>
+  </si>
+  <si>
+    <t>Not desirable</t>
+  </si>
+  <si>
+    <t>Fine Sand</t>
+  </si>
+  <si>
+    <t>Silty Sand</t>
+  </si>
+  <si>
+    <t>Sandy Silt</t>
+  </si>
+  <si>
+    <t>Clayey Silt</t>
+  </si>
+  <si>
+    <t>Sandy Clay</t>
+  </si>
+  <si>
+    <t>Silty Clay</t>
+  </si>
+  <si>
+    <t>Percolation Rate (min/cm) min</t>
+  </si>
+  <si>
+    <t>Percolation Rate (min/cm) max</t>
+  </si>
+  <si>
+    <t>Infiltration Rate (mm/h = l/m²/h) max</t>
+  </si>
+  <si>
+    <t>Infiltration Rate (mm/h = l/m²/h) min</t>
   </si>
 </sst>
 </file>
@@ -155,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +246,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,11 +270,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -256,6 +321,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1628,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B568BD0-C5D8-1449-9C16-5F0A8DB56168}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1803,4 +1871,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E38BA0-338E-164A-BD97-4FF3CCB511D7}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1440</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1440</v>
+      </c>
+      <c r="E3" s="10">
+        <v>360</v>
+      </c>
+      <c r="F3" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>360</v>
+      </c>
+      <c r="E4" s="10">
+        <v>288</v>
+      </c>
+      <c r="F4" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>252</v>
+      </c>
+      <c r="E5" s="10">
+        <v>108</v>
+      </c>
+      <c r="F5" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>108</v>
+      </c>
+      <c r="E6" s="10">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>23.8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>36</v>
+      </c>
+      <c r="E7" s="10">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>23.8</v>
+      </c>
+      <c r="D8" s="10">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="10">
+        <v>23.8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>47.2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <v>47.2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>